--- a/public/hello-world.xlsx
+++ b/public/hello-world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Tiết 1</t>
   </si>
@@ -45,6 +45,33 @@
   </si>
   <si>
     <t>Tiết 10</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>TƯ</t>
+  </si>
+  <si>
+    <t>NĂM</t>
+  </si>
+  <si>
+    <t>SÁU</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>4A</t>
   </si>
 </sst>
 </file>
@@ -383,7 +410,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,9 +418,76 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="1" spans="1:12">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>21</v>
+      </c>
+    </row>
     <row r="3" spans="1:12">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -427,8 +521,11 @@
       </c>
     </row>
     <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -463,7 +560,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -498,100 +595,75 @@
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>15</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <v>15</v>
-      </c>
-      <c r="L6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" t="s">
+      <c r="G14" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>15</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>12</v>
-      </c>
-      <c r="K7">
-        <v>15</v>
-      </c>
-      <c r="L7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" t="s">
+      <c r="H14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" t="s">
+      <c r="I14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" t="s">
+      <c r="J14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="B11" t="s">
+      <c r="K14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" t="s">
+      <c r="L14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
       <c r="C15">
         <v>10</v>
       </c>
@@ -624,6 +696,9 @@
       </c>
     </row>
     <row r="16" spans="1:12">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
       <c r="C16">
         <v>10</v>
       </c>
@@ -656,6 +731,12 @@
       </c>
     </row>
     <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
       <c r="C17">
         <v>10</v>
       </c>
@@ -688,6 +769,9 @@
       </c>
     </row>
     <row r="18" spans="1:12">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
       <c r="C18">
         <v>10</v>
       </c>
@@ -720,6 +804,9 @@
       </c>
     </row>
     <row r="19" spans="1:12">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
       <c r="C19">
         <v>10</v>
       </c>
@@ -752,38 +839,41 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>12</v>
-      </c>
-      <c r="E27">
-        <v>15</v>
-      </c>
-      <c r="F27">
-        <v>10</v>
-      </c>
-      <c r="G27">
-        <v>12</v>
-      </c>
-      <c r="H27">
-        <v>15</v>
-      </c>
-      <c r="I27">
-        <v>10</v>
-      </c>
-      <c r="J27">
-        <v>12</v>
-      </c>
-      <c r="K27">
-        <v>15</v>
-      </c>
-      <c r="L27">
-        <v>21</v>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:12">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
       <c r="C28">
         <v>10</v>
       </c>
@@ -816,6 +906,9 @@
       </c>
     </row>
     <row r="29" spans="1:12">
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
       <c r="C29">
         <v>10</v>
       </c>
@@ -848,6 +941,12 @@
       </c>
     </row>
     <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
       <c r="C30">
         <v>10</v>
       </c>
@@ -880,6 +979,9 @@
       </c>
     </row>
     <row r="31" spans="1:12">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
       <c r="C31">
         <v>10</v>
       </c>
@@ -911,71 +1013,77 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>12</v>
-      </c>
-      <c r="E39">
-        <v>15</v>
-      </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39">
-        <v>12</v>
-      </c>
-      <c r="H39">
-        <v>15</v>
-      </c>
-      <c r="I39">
-        <v>10</v>
-      </c>
-      <c r="J39">
-        <v>12</v>
-      </c>
-      <c r="K39">
-        <v>15</v>
-      </c>
-      <c r="L39">
+    <row r="32" spans="1:12">
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+      <c r="H32">
+        <v>15</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <v>15</v>
+      </c>
+      <c r="L32">
         <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="C40">
-        <v>10</v>
-      </c>
-      <c r="D40">
-        <v>12</v>
-      </c>
-      <c r="E40">
-        <v>15</v>
-      </c>
-      <c r="F40">
-        <v>10</v>
-      </c>
-      <c r="G40">
-        <v>12</v>
-      </c>
-      <c r="H40">
-        <v>15</v>
-      </c>
-      <c r="I40">
-        <v>10</v>
-      </c>
-      <c r="J40">
-        <v>12</v>
-      </c>
-      <c r="K40">
-        <v>15</v>
-      </c>
-      <c r="L40">
-        <v>21</v>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:12">
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
       <c r="C41">
         <v>10</v>
       </c>
@@ -1008,6 +1116,9 @@
       </c>
     </row>
     <row r="42" spans="1:12">
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
       <c r="C42">
         <v>10</v>
       </c>
@@ -1040,6 +1151,12 @@
       </c>
     </row>
     <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
       <c r="C43">
         <v>10</v>
       </c>
@@ -1068,6 +1185,76 @@
         <v>15</v>
       </c>
       <c r="L43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>15</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>12</v>
+      </c>
+      <c r="H44">
+        <v>15</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <v>12</v>
+      </c>
+      <c r="K44">
+        <v>15</v>
+      </c>
+      <c r="L44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>15</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>12</v>
+      </c>
+      <c r="H45">
+        <v>15</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>12</v>
+      </c>
+      <c r="K45">
+        <v>15</v>
+      </c>
+      <c r="L45">
         <v>21</v>
       </c>
     </row>
